--- a/data/pca/factorExposure/factorExposure_2017-03-16.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-03-16.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.01578860295299715</v>
+        <v>0.01091510597565401</v>
       </c>
       <c r="C2">
-        <v>-0.0184090906904042</v>
+        <v>-0.0424945186620739</v>
       </c>
       <c r="D2">
-        <v>0.02764435706354883</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.03000057616422053</v>
+      </c>
+      <c r="E2">
+        <v>-0.03964096389085333</v>
+      </c>
+      <c r="F2">
+        <v>0.0004112669922334928</v>
+      </c>
+      <c r="G2">
+        <v>0.1046035022343949</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>0.02390068381892914</v>
+        <v>0.03954011375532596</v>
       </c>
       <c r="C3">
-        <v>0.002004411260839833</v>
+        <v>-0.09995608448463981</v>
       </c>
       <c r="D3">
-        <v>0.09061993848007695</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.01781606626700619</v>
+      </c>
+      <c r="E3">
+        <v>-0.1026076479497027</v>
+      </c>
+      <c r="F3">
+        <v>-0.007061186505085443</v>
+      </c>
+      <c r="G3">
+        <v>0.1572219485411755</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.02791282876908613</v>
+        <v>0.05483196746506597</v>
       </c>
       <c r="C4">
-        <v>-0.01015416777815108</v>
+        <v>-0.0687344535379365</v>
       </c>
       <c r="D4">
-        <v>0.07664294669233482</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.02480347952715409</v>
+      </c>
+      <c r="E4">
+        <v>-0.03600126615801791</v>
+      </c>
+      <c r="F4">
+        <v>0.008000557043179465</v>
+      </c>
+      <c r="G4">
+        <v>0.09964491428167678</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,136 +806,226 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.01054908424076919</v>
+        <v>0.03581456518671544</v>
       </c>
       <c r="C6">
-        <v>-0.0109406156423438</v>
+        <v>-0.05084671603055557</v>
       </c>
       <c r="D6">
-        <v>0.07358028684632566</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.01736007030745533</v>
+      </c>
+      <c r="E6">
+        <v>-0.04110548340753576</v>
+      </c>
+      <c r="F6">
+        <v>0.003264258208639959</v>
+      </c>
+      <c r="G6">
+        <v>0.08714789915909975</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.0009623447471455197</v>
+        <v>0.02052661339484341</v>
       </c>
       <c r="C7">
-        <v>-0.01215393914607058</v>
+        <v>-0.03926768745738864</v>
       </c>
       <c r="D7">
-        <v>0.0338123565644521</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.01398272254740024</v>
+      </c>
+      <c r="E7">
+        <v>-0.008232999958708272</v>
+      </c>
+      <c r="F7">
+        <v>-0.005707667804531372</v>
+      </c>
+      <c r="G7">
+        <v>0.1238445933105148</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.003599367652672883</v>
+        <v>0.002283266344620281</v>
       </c>
       <c r="C8">
-        <v>-0.002595553345973987</v>
+        <v>-0.02416244691220998</v>
       </c>
       <c r="D8">
-        <v>-0.007192692796737056</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.003973473348684455</v>
+      </c>
+      <c r="E8">
+        <v>-0.03142773732507624</v>
+      </c>
+      <c r="F8">
+        <v>0.001373138641157062</v>
+      </c>
+      <c r="G8">
+        <v>0.07127096797188598</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.01355779331643404</v>
+        <v>0.03303964058604054</v>
       </c>
       <c r="C9">
-        <v>-0.008453197891320378</v>
+        <v>-0.05016611723379372</v>
       </c>
       <c r="D9">
-        <v>0.05594690281771363</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.0164563460799824</v>
+      </c>
+      <c r="E9">
+        <v>-0.02461344640082038</v>
+      </c>
+      <c r="F9">
+        <v>0.005983525577949499</v>
+      </c>
+      <c r="G9">
+        <v>0.09986411114045149</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.1516976949727467</v>
+        <v>0.0995967867021668</v>
       </c>
       <c r="C10">
-        <v>0.08701385507503769</v>
+        <v>0.1822753909036532</v>
       </c>
       <c r="D10">
-        <v>-0.115445803504245</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.0152645797727397</v>
+      </c>
+      <c r="E10">
+        <v>-0.02056188140134036</v>
+      </c>
+      <c r="F10">
+        <v>-0.02130533133606867</v>
+      </c>
+      <c r="G10">
+        <v>0.05608394547016665</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>0.002194895418890572</v>
+        <v>0.03375966292971774</v>
       </c>
       <c r="C11">
-        <v>0.000405556443109198</v>
+        <v>-0.05306197305706579</v>
       </c>
       <c r="D11">
-        <v>0.05022325263088512</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.002586522504233974</v>
+      </c>
+      <c r="E11">
+        <v>-0.01921526064630701</v>
+      </c>
+      <c r="F11">
+        <v>0.01692296682509786</v>
+      </c>
+      <c r="G11">
+        <v>0.0908481007376271</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.006421981516438136</v>
+        <v>0.03531128798188369</v>
       </c>
       <c r="C12">
-        <v>-0.002797223831573699</v>
+        <v>-0.0478706155153267</v>
       </c>
       <c r="D12">
-        <v>0.04390988861995455</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.006645752194767331</v>
+      </c>
+      <c r="E12">
+        <v>-0.00978765967053251</v>
+      </c>
+      <c r="F12">
+        <v>0.0002547547124118384</v>
+      </c>
+      <c r="G12">
+        <v>0.08237634938739637</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.01489457176976071</v>
+        <v>0.01489492914392008</v>
       </c>
       <c r="C13">
-        <v>-0.01595882236556557</v>
+        <v>-0.04174626105197637</v>
       </c>
       <c r="D13">
-        <v>0.03206928763434896</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.02670685034722639</v>
+      </c>
+      <c r="E13">
+        <v>-0.03947030323032766</v>
+      </c>
+      <c r="F13">
+        <v>-0.002270653199719501</v>
+      </c>
+      <c r="G13">
+        <v>0.1417587460076039</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.00248447266746552</v>
+        <v>0.008115637483585618</v>
       </c>
       <c r="C14">
-        <v>-0.006251942228550395</v>
+        <v>-0.02811692510793825</v>
       </c>
       <c r="D14">
-        <v>0.01845959374195795</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.01026079789737723</v>
+      </c>
+      <c r="E14">
+        <v>-0.009258124658049162</v>
+      </c>
+      <c r="F14">
+        <v>-0.008468810269737904</v>
+      </c>
+      <c r="G14">
+        <v>0.1078978066710374</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -901,24 +1036,42 @@
       <c r="D15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.005818918768120475</v>
+        <v>0.03245378076999945</v>
       </c>
       <c r="C16">
-        <v>0.002484787648828595</v>
+        <v>-0.04609938780178256</v>
       </c>
       <c r="D16">
-        <v>0.03954109786242862</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.002021006824506724</v>
+      </c>
+      <c r="E16">
+        <v>-0.01544035946618299</v>
+      </c>
+      <c r="F16">
+        <v>-0.001714182819557709</v>
+      </c>
+      <c r="G16">
+        <v>0.0929676201290045</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>0.009713164098112619</v>
+        <v>0.02206466497639342</v>
       </c>
       <c r="C19">
-        <v>-0.009247374438072426</v>
+        <v>-0.05148488653502013</v>
       </c>
       <c r="D19">
-        <v>0.03703029739405667</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.0196389070723246</v>
+      </c>
+      <c r="E19">
+        <v>-0.08435866109601033</v>
+      </c>
+      <c r="F19">
+        <v>0.01173052930483834</v>
+      </c>
+      <c r="G19">
+        <v>0.1385677198209731</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.002426192507353415</v>
+        <v>0.01512077019158532</v>
       </c>
       <c r="C20">
-        <v>-0.01062680344982</v>
+        <v>-0.042099023396093</v>
       </c>
       <c r="D20">
-        <v>0.0313438388900518</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.01444398239062186</v>
+      </c>
+      <c r="E20">
+        <v>-0.03870003479163947</v>
+      </c>
+      <c r="F20">
+        <v>-0.01687932591028098</v>
+      </c>
+      <c r="G20">
+        <v>0.1116203827826889</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.007844801876461225</v>
+        <v>0.01104459856864005</v>
       </c>
       <c r="C21">
-        <v>-0.01034275909828688</v>
+        <v>-0.03836483819660384</v>
       </c>
       <c r="D21">
-        <v>0.01591793145141179</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.01951427891699142</v>
+      </c>
+      <c r="E21">
+        <v>-0.05297186741395099</v>
+      </c>
+      <c r="F21">
+        <v>-0.00516800839494058</v>
+      </c>
+      <c r="G21">
+        <v>0.1393092013949551</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>-0.001027095381932836</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>-0.007030048606140369</v>
       </c>
       <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.00187577265950405</v>
+      </c>
+      <c r="E22">
+        <v>-0.01377558184963438</v>
+      </c>
+      <c r="F22">
+        <v>0.01019496703342359</v>
+      </c>
+      <c r="G22">
+        <v>-0.0007629011470477948</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>-0.001023528476271736</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>-0.007030683947993605</v>
       </c>
       <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.001871308641181636</v>
+      </c>
+      <c r="E23">
+        <v>-0.01373483483584439</v>
+      </c>
+      <c r="F23">
+        <v>0.01016472830448837</v>
+      </c>
+      <c r="G23">
+        <v>-0.0008810597122640028</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.001623532937429886</v>
+        <v>0.02763473880992699</v>
       </c>
       <c r="C24">
-        <v>-0.006602996611716261</v>
+        <v>-0.04999062107469934</v>
       </c>
       <c r="D24">
-        <v>0.04314048952456524</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.007275867225399268</v>
+      </c>
+      <c r="E24">
+        <v>-0.01359363497445131</v>
+      </c>
+      <c r="F24">
+        <v>0.009149800474326472</v>
+      </c>
+      <c r="G24">
+        <v>0.09119739535990795</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.01560139002388208</v>
+        <v>0.0414048573008261</v>
       </c>
       <c r="C25">
-        <v>-0.003244948768809266</v>
+        <v>-0.05769446763508822</v>
       </c>
       <c r="D25">
-        <v>0.05691387812638091</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.01129993241146882</v>
+      </c>
+      <c r="E25">
+        <v>-0.005471433157692892</v>
+      </c>
+      <c r="F25">
+        <v>0.003525218046357724</v>
+      </c>
+      <c r="G25">
+        <v>0.09863157807073263</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.009443381229719633</v>
+        <v>0.01358837453184919</v>
       </c>
       <c r="C26">
-        <v>-0.01964981189778089</v>
+        <v>-0.0123266677783879</v>
       </c>
       <c r="D26">
-        <v>-0.000733279976671247</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.02417448351961815</v>
+      </c>
+      <c r="E26">
+        <v>-0.009885934402469192</v>
+      </c>
+      <c r="F26">
+        <v>-0.007839192414961329</v>
+      </c>
+      <c r="G26">
+        <v>0.08388874684717802</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1312,180 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.2033523564208158</v>
+        <v>0.128768685654459</v>
       </c>
       <c r="C28">
-        <v>0.1000463681732756</v>
+        <v>0.2416100867535813</v>
       </c>
       <c r="D28">
-        <v>-0.1450864749687531</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.006523191989339652</v>
+      </c>
+      <c r="E28">
+        <v>-0.008737628812940445</v>
+      </c>
+      <c r="F28">
+        <v>-0.01795004989517582</v>
+      </c>
+      <c r="G28">
+        <v>0.0484821771120323</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.007850882764911278</v>
+        <v>0.008583818800252054</v>
       </c>
       <c r="C29">
-        <v>-0.003048220283142018</v>
+        <v>-0.02275340637664031</v>
       </c>
       <c r="D29">
-        <v>0.01501727519192452</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.009332892296521601</v>
+      </c>
+      <c r="E29">
+        <v>-0.005318929277994863</v>
+      </c>
+      <c r="F29">
+        <v>-0.01486766785120719</v>
+      </c>
+      <c r="G29">
+        <v>0.09962877358685071</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.009579691565496118</v>
+        <v>0.03992348388480146</v>
       </c>
       <c r="C30">
-        <v>-0.02181572127198516</v>
+        <v>-0.06908118930919355</v>
       </c>
       <c r="D30">
-        <v>0.09566325170690269</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.02934991399262246</v>
+      </c>
+      <c r="E30">
+        <v>-0.06535020803478353</v>
+      </c>
+      <c r="F30">
+        <v>0.03808684920298703</v>
+      </c>
+      <c r="G30">
+        <v>0.1349669789779493</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.02445671234456287</v>
+        <v>0.05271530368686334</v>
       </c>
       <c r="C31">
-        <v>0.007651768161622274</v>
+        <v>-0.03984504935628704</v>
       </c>
       <c r="D31">
-        <v>0.03046156273083059</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.003875506733126844</v>
+      </c>
+      <c r="E31">
+        <v>0.001287716575202908</v>
+      </c>
+      <c r="F31">
+        <v>-0.03809614760639503</v>
+      </c>
+      <c r="G31">
+        <v>0.09802240841039635</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-0.003702507241572743</v>
+        <v>0.002293480448649809</v>
       </c>
       <c r="C32">
-        <v>0.00709375743936287</v>
+        <v>-0.02121526862020922</v>
       </c>
       <c r="D32">
-        <v>-0.008171844444611881</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.002744558185694283</v>
+      </c>
+      <c r="E32">
+        <v>-0.0396396236475074</v>
+      </c>
+      <c r="F32">
+        <v>0.03636574101538512</v>
+      </c>
+      <c r="G32">
+        <v>0.08764258178083922</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.008695331704548561</v>
+        <v>0.02759258406159104</v>
       </c>
       <c r="C33">
-        <v>-0.007720911607831258</v>
+        <v>-0.05137832868867295</v>
       </c>
       <c r="D33">
-        <v>0.04034672244537079</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.01629416378000539</v>
+      </c>
+      <c r="E33">
+        <v>-0.0480373323307928</v>
+      </c>
+      <c r="F33">
+        <v>0.01224208819545494</v>
+      </c>
+      <c r="G33">
+        <v>0.1625371186544353</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>0.01312973272633409</v>
+        <v>0.03880903680084946</v>
       </c>
       <c r="C34">
-        <v>0.01369810393160117</v>
+        <v>-0.05943862232329555</v>
       </c>
       <c r="D34">
-        <v>0.05670081139158082</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.004240748895823176</v>
+      </c>
+      <c r="E34">
+        <v>-0.01085320198110233</v>
+      </c>
+      <c r="F34">
+        <v>0.01990509578391486</v>
+      </c>
+      <c r="G34">
+        <v>0.09477827253637405</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1496,42 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.01274612731749841</v>
+        <v>0.01594095717902898</v>
       </c>
       <c r="C36">
-        <v>-0.005137245685319924</v>
+        <v>-0.01060443253800037</v>
       </c>
       <c r="D36">
-        <v>0.003659773465321597</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.01281624939062822</v>
+      </c>
+      <c r="E36">
+        <v>-0.01041896090417673</v>
+      </c>
+      <c r="F36">
+        <v>-0.00776094611959328</v>
+      </c>
+      <c r="G36">
+        <v>0.09262780954224877</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,108 +1542,180 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>0.01906511427994842</v>
+        <v>0.03075165419946737</v>
       </c>
       <c r="C38">
-        <v>0.01877493162834711</v>
+        <v>-0.03075771329709417</v>
       </c>
       <c r="D38">
-        <v>0.04079573670794179</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.007497759130943256</v>
+      </c>
+      <c r="E38">
+        <v>-0.006864697133891179</v>
+      </c>
+      <c r="F38">
+        <v>-0.0180405959030157</v>
+      </c>
+      <c r="G38">
+        <v>0.08670250745710409</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.01105159768149888</v>
+        <v>0.03576352170191812</v>
       </c>
       <c r="C39">
-        <v>-0.01543280906449952</v>
+        <v>-0.07924430163986619</v>
       </c>
       <c r="D39">
-        <v>0.09884772864968296</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.01179054904738413</v>
+      </c>
+      <c r="E39">
+        <v>-0.0311143856675726</v>
+      </c>
+      <c r="F39">
+        <v>0.0191014195230694</v>
+      </c>
+      <c r="G39">
+        <v>0.09038196126886046</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.01414202154272403</v>
+        <v>0.01335183637194618</v>
       </c>
       <c r="C40">
-        <v>-0.004389266034607746</v>
+        <v>-0.03834916041610301</v>
       </c>
       <c r="D40">
-        <v>0.02777419238511911</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.01481489607868529</v>
+      </c>
+      <c r="E40">
+        <v>-0.03213758389156771</v>
+      </c>
+      <c r="F40">
+        <v>-0.01284352828633894</v>
+      </c>
+      <c r="G40">
+        <v>0.1234427296602917</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.01482148978280655</v>
+        <v>0.0203276691231669</v>
       </c>
       <c r="C41">
-        <v>0.004367551439865545</v>
+        <v>-0.004294644205034774</v>
       </c>
       <c r="D41">
-        <v>-0.01046257816533751</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.004627750143495666</v>
+      </c>
+      <c r="E41">
+        <v>-0.007056268900989818</v>
+      </c>
+      <c r="F41">
+        <v>-0.01569176210625119</v>
+      </c>
+      <c r="G41">
+        <v>0.08567207072348458</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>0.02865860749650439</v>
+        <v>0.007118003226089022</v>
       </c>
       <c r="C42">
-        <v>-0.08862333659634188</v>
+        <v>-0.02979178436181758</v>
       </c>
       <c r="D42">
-        <v>0.1158766839974551</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>0.08766785667800719</v>
+      </c>
+      <c r="E42">
+        <v>-0.00960170978724508</v>
+      </c>
+      <c r="F42">
+        <v>-0.0405826247972012</v>
+      </c>
+      <c r="G42">
+        <v>-0.02516320206911863</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.01454441437317719</v>
+        <v>0.0347344157167695</v>
       </c>
       <c r="C43">
-        <v>0.003349989848698977</v>
+        <v>-0.01962342860489754</v>
       </c>
       <c r="D43">
-        <v>-0.01109247739081988</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.006154008057552046</v>
+      </c>
+      <c r="E43">
+        <v>-0.02185589658603607</v>
+      </c>
+      <c r="F43">
+        <v>-0.007912899008402011</v>
+      </c>
+      <c r="G43">
+        <v>0.1193680321711439</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>-0.0009879330725302738</v>
+        <v>0.01349613708894639</v>
       </c>
       <c r="C44">
-        <v>-0.003291656089852951</v>
+        <v>-0.05829272086446531</v>
       </c>
       <c r="D44">
-        <v>0.04580188378000855</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.006865248213589423</v>
+      </c>
+      <c r="E44">
+        <v>-0.02510870105965973</v>
+      </c>
+      <c r="F44">
+        <v>-0.008671634716340037</v>
+      </c>
+      <c r="G44">
+        <v>0.1103432639472764</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.0058165603965983</v>
+        <v>0.008811716018035654</v>
       </c>
       <c r="C46">
-        <v>-0.007797671157142731</v>
+        <v>-0.01475800719466101</v>
       </c>
       <c r="D46">
-        <v>-0.003911171075139274</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.012573439297142</v>
+      </c>
+      <c r="E46">
+        <v>-0.0002841000006614839</v>
+      </c>
+      <c r="F46">
+        <v>-0.01863029457160692</v>
+      </c>
+      <c r="G46">
+        <v>0.1080624494236841</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.02684586254856994</v>
+        <v>0.07750023681264794</v>
       </c>
       <c r="C47">
-        <v>0.01652475239562471</v>
+        <v>-0.06981633689371379</v>
       </c>
       <c r="D47">
-        <v>0.07639433038832259</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.005060065319615226</v>
+      </c>
+      <c r="E47">
+        <v>0.009252151313345565</v>
+      </c>
+      <c r="F47">
+        <v>-0.05280823121947832</v>
+      </c>
+      <c r="G47">
+        <v>0.08346197603027544</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.009099153995638437</v>
+        <v>0.01843330302617742</v>
       </c>
       <c r="C48">
-        <v>0.003786910397126875</v>
+        <v>-0.01361019077761616</v>
       </c>
       <c r="D48">
-        <v>0.0150701648169409</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.002474385070358084</v>
+      </c>
+      <c r="E48">
+        <v>-0.006409061872305705</v>
+      </c>
+      <c r="F48">
+        <v>-0.01920849137632048</v>
+      </c>
+      <c r="G48">
+        <v>0.09849299700604418</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.03412981527289864</v>
+        <v>0.07439340287625648</v>
       </c>
       <c r="C50">
-        <v>0.01848964321700749</v>
+        <v>-0.07316937814335939</v>
       </c>
       <c r="D50">
-        <v>0.06817739210066968</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.002168131982479473</v>
+      </c>
+      <c r="E50">
+        <v>0.005428418733168193</v>
+      </c>
+      <c r="F50">
+        <v>-0.05308835112458797</v>
+      </c>
+      <c r="G50">
+        <v>0.09307979325943952</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>0.009604376444116441</v>
+        <v>0.01412108803045693</v>
       </c>
       <c r="C51">
-        <v>-0.001132167911967332</v>
+        <v>-0.03692733324584919</v>
       </c>
       <c r="D51">
-        <v>0.02706030331139351</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.010586295788553</v>
+      </c>
+      <c r="E51">
+        <v>-0.03046566524007875</v>
+      </c>
+      <c r="F51">
+        <v>0.01710032044089514</v>
+      </c>
+      <c r="G51">
+        <v>0.1257968609342395</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,136 +1887,226 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.04321090525813</v>
+        <v>0.08148968051786283</v>
       </c>
       <c r="C53">
-        <v>0.02323472281585649</v>
+        <v>-0.08562102724496407</v>
       </c>
       <c r="D53">
-        <v>0.124971695057583</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.00348171483367073</v>
+      </c>
+      <c r="E53">
+        <v>0.02814232850374669</v>
+      </c>
+      <c r="F53">
+        <v>-0.06080313416975152</v>
+      </c>
+      <c r="G53">
+        <v>0.09325020247212679</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>0.01726897717575651</v>
+        <v>0.03127973567333001</v>
       </c>
       <c r="C54">
-        <v>0.01271104419446666</v>
+        <v>-0.01940865707491015</v>
       </c>
       <c r="D54">
-        <v>-0.001999871802444092</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.001028069645259594</v>
+      </c>
+      <c r="E54">
+        <v>-0.02006123765614041</v>
+      </c>
+      <c r="F54">
+        <v>-0.006496985948942993</v>
+      </c>
+      <c r="G54">
+        <v>0.1080829894342366</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.02588852208677236</v>
+        <v>0.07179134540037195</v>
       </c>
       <c r="C55">
-        <v>0.01519166214058664</v>
+        <v>-0.06849376189024438</v>
       </c>
       <c r="D55">
-        <v>0.101851865331907</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.005018088163743563</v>
+      </c>
+      <c r="E55">
+        <v>0.02524508158411624</v>
+      </c>
+      <c r="F55">
+        <v>-0.06050812105183017</v>
+      </c>
+      <c r="G55">
+        <v>0.06899140195740995</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.05143154347664858</v>
+        <v>0.1359308284718196</v>
       </c>
       <c r="C56">
-        <v>0.03195703261883128</v>
+        <v>-0.1084447324862621</v>
       </c>
       <c r="D56">
-        <v>0.1594720842601744</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.01271796793147513</v>
+      </c>
+      <c r="E56">
+        <v>0.03883031264964896</v>
+      </c>
+      <c r="F56">
+        <v>-0.07774290902489359</v>
+      </c>
+      <c r="G56">
+        <v>0.04318327726527516</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>0.01782022912439167</v>
+        <v>0.005591446934870425</v>
       </c>
       <c r="C57">
-        <v>-0.01566010017578982</v>
+        <v>-0.005848597355816136</v>
       </c>
       <c r="D57">
-        <v>0.02774823533448348</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>0.02271756217261195</v>
+      </c>
+      <c r="E57">
+        <v>-0.02488719996462778</v>
+      </c>
+      <c r="F57">
+        <v>0.00472919394630366</v>
+      </c>
+      <c r="G57">
+        <v>0.02315811064044537</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.01337059153175393</v>
+        <v>0.05094874475969974</v>
       </c>
       <c r="C58">
-        <v>0.005156631104680956</v>
+        <v>-0.04513957013246906</v>
       </c>
       <c r="D58">
-        <v>0.09931891621513372</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.02291655582922729</v>
+      </c>
+      <c r="E58">
+        <v>-0.8842025736607998</v>
+      </c>
+      <c r="F58">
+        <v>-0.3456217493010079</v>
+      </c>
+      <c r="G58">
+        <v>-0.2391000374687547</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.2261752178550537</v>
+        <v>0.1606267978933177</v>
       </c>
       <c r="C59">
-        <v>0.1174160627442275</v>
+        <v>0.205334521707124</v>
       </c>
       <c r="D59">
-        <v>-0.1222699728768781</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.01125640389010466</v>
+      </c>
+      <c r="E59">
+        <v>-0.02232438461860085</v>
+      </c>
+      <c r="F59">
+        <v>-0.002636253667140569</v>
+      </c>
+      <c r="G59">
+        <v>0.04240716687142301</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.2085188803131359</v>
+        <v>0.2860911854168868</v>
       </c>
       <c r="C60">
-        <v>0.08903953626601177</v>
+        <v>-0.1164272686820284</v>
       </c>
       <c r="D60">
-        <v>0.1622936834110983</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.01322671049003829</v>
+      </c>
+      <c r="E60">
+        <v>-0.03586676575412315</v>
+      </c>
+      <c r="F60">
+        <v>0.3460835550479388</v>
+      </c>
+      <c r="G60">
+        <v>-0.1649603309894889</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.002159393607784694</v>
+        <v>0.03779170909049807</v>
       </c>
       <c r="C61">
-        <v>-0.002256395020135374</v>
+        <v>-0.06607950558328524</v>
       </c>
       <c r="D61">
-        <v>0.07550813179615014</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.00583943913543179</v>
+      </c>
+      <c r="E61">
+        <v>-0.02606608020618944</v>
+      </c>
+      <c r="F61">
+        <v>0.01180866952247587</v>
+      </c>
+      <c r="G61">
+        <v>0.09853991252257172</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.004868418383287036</v>
+        <v>0.01468211133792108</v>
       </c>
       <c r="C63">
-        <v>-0.005415567129425483</v>
+        <v>-0.03058768216824288</v>
       </c>
       <c r="D63">
-        <v>0.02506328573033612</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.008732413074124503</v>
+      </c>
+      <c r="E63">
+        <v>-0.00635826292088711</v>
+      </c>
+      <c r="F63">
+        <v>-0.01431311132187453</v>
+      </c>
+      <c r="G63">
+        <v>0.09446179931298006</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.02670874810664461</v>
+        <v>0.04863539015507526</v>
       </c>
       <c r="C64">
-        <v>0.008367069432610863</v>
+        <v>-0.04752054090267038</v>
       </c>
       <c r="D64">
-        <v>0.0551753771405633</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.006347558200196461</v>
+      </c>
+      <c r="E64">
+        <v>-0.008309945578571972</v>
+      </c>
+      <c r="F64">
+        <v>0.003780425612127303</v>
+      </c>
+      <c r="G64">
+        <v>0.1004670514238587</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.03388507210447734</v>
+        <v>0.07421171542360372</v>
       </c>
       <c r="C65">
-        <v>-0.0009453318312628896</v>
+        <v>-0.0590053381478825</v>
       </c>
       <c r="D65">
-        <v>0.1138128325416876</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.01711171469098274</v>
+      </c>
+      <c r="E65">
+        <v>-0.04501853461466467</v>
+      </c>
+      <c r="F65">
+        <v>0.02547050282469332</v>
+      </c>
+      <c r="G65">
+        <v>0.044490782951658</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.008394073251059612</v>
+        <v>0.04922638742216089</v>
       </c>
       <c r="C66">
-        <v>-0.01338790834056569</v>
+        <v>-0.1060318816476744</v>
       </c>
       <c r="D66">
-        <v>0.139306367652417</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.0119518198836269</v>
+      </c>
+      <c r="E66">
+        <v>-0.04507504202379898</v>
+      </c>
+      <c r="F66">
+        <v>0.03006975682874986</v>
+      </c>
+      <c r="G66">
+        <v>0.105387957210372</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>0.04198127188234784</v>
+        <v>0.05393499119005046</v>
       </c>
       <c r="C67">
-        <v>0.02703458205144211</v>
+        <v>-0.03477281744988121</v>
       </c>
       <c r="D67">
-        <v>0.06094932885487766</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.006063223941849266</v>
+      </c>
+      <c r="E67">
+        <v>0.0030481478842388</v>
+      </c>
+      <c r="F67">
+        <v>-0.01658060712920448</v>
+      </c>
+      <c r="G67">
+        <v>0.07404352106617708</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.2333683615740892</v>
+        <v>0.1591101429808635</v>
       </c>
       <c r="C68">
-        <v>0.09937229663724184</v>
+        <v>0.2696043204842816</v>
       </c>
       <c r="D68">
-        <v>-0.1791714404484117</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.005847186528184841</v>
+      </c>
+      <c r="E68">
+        <v>-0.01046892096561755</v>
+      </c>
+      <c r="F68">
+        <v>-0.03880623725033357</v>
+      </c>
+      <c r="G68">
+        <v>0.03037670639887198</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>0.03378291989928593</v>
+        <v>0.08102544354094247</v>
       </c>
       <c r="C69">
-        <v>0.0245229776754603</v>
+        <v>-0.07222102319046635</v>
       </c>
       <c r="D69">
-        <v>0.07783638338995384</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.008995461941976021</v>
+      </c>
+      <c r="E69">
+        <v>0.02206851217697927</v>
+      </c>
+      <c r="F69">
+        <v>-0.03337478857945904</v>
+      </c>
+      <c r="G69">
+        <v>0.100538733039028</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,192 +2301,318 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.1909051812428483</v>
+        <v>0.1431157949886073</v>
       </c>
       <c r="C71">
-        <v>0.08854650916131719</v>
+        <v>0.2269098204839021</v>
       </c>
       <c r="D71">
-        <v>-0.1225846017518333</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.002473093620882633</v>
+      </c>
+      <c r="E71">
+        <v>-0.03119508599957232</v>
+      </c>
+      <c r="F71">
+        <v>-0.02764111149406991</v>
+      </c>
+      <c r="G71">
+        <v>0.07105845037652121</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>0.0179712050256321</v>
+        <v>0.08429266334400784</v>
       </c>
       <c r="C72">
-        <v>0.01679903742007306</v>
+        <v>-0.06888522517794657</v>
       </c>
       <c r="D72">
-        <v>0.1051292603919139</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.008337716833273419</v>
+      </c>
+      <c r="E72">
+        <v>0.007105722689404132</v>
+      </c>
+      <c r="F72">
+        <v>0.03279203586770117</v>
+      </c>
+      <c r="G72">
+        <v>0.08957458645633112</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.2599769911517057</v>
+        <v>0.3738031955736094</v>
       </c>
       <c r="C73">
-        <v>0.1061447004945346</v>
+        <v>-0.1216024939888283</v>
       </c>
       <c r="D73">
-        <v>0.2906972658383279</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.02280337134043633</v>
+      </c>
+      <c r="E73">
+        <v>-0.1241264572639698</v>
+      </c>
+      <c r="F73">
+        <v>0.574846019156982</v>
+      </c>
+      <c r="G73">
+        <v>-0.2878450263677584</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>0.05513267337758491</v>
+        <v>0.1045164323220468</v>
       </c>
       <c r="C74">
-        <v>0.03580786839109552</v>
+        <v>-0.1105877439229982</v>
       </c>
       <c r="D74">
-        <v>0.1735365900200691</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.00945885089218783</v>
+      </c>
+      <c r="E74">
+        <v>0.01130982349190048</v>
+      </c>
+      <c r="F74">
+        <v>-0.06680083348687274</v>
+      </c>
+      <c r="G74">
+        <v>0.08144452340434873</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.1256216035389007</v>
+        <v>0.2470760330865502</v>
       </c>
       <c r="C75">
-        <v>0.0772858876394719</v>
+        <v>-0.1531147704441463</v>
       </c>
       <c r="D75">
-        <v>0.2938880950660475</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.03161718907564467</v>
+      </c>
+      <c r="E75">
+        <v>0.08116223521413261</v>
+      </c>
+      <c r="F75">
+        <v>-0.1591095089220315</v>
+      </c>
+      <c r="G75">
+        <v>-0.02102656854187239</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>0.06027491306723323</v>
+        <v>0.1172170374303029</v>
       </c>
       <c r="C76">
-        <v>0.04412042968459469</v>
+        <v>-0.1106049347493559</v>
       </c>
       <c r="D76">
-        <v>0.1997355258352562</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.01760753072516739</v>
+      </c>
+      <c r="E76">
+        <v>0.03044649801416772</v>
+      </c>
+      <c r="F76">
+        <v>-0.09466547555363669</v>
+      </c>
+      <c r="G76">
+        <v>0.05665161074100542</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.01853591297329561</v>
+        <v>0.07011031244796358</v>
       </c>
       <c r="C77">
-        <v>-0.0005666015047702759</v>
+        <v>-0.06021746853193021</v>
       </c>
       <c r="D77">
-        <v>0.08160102665389916</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.0100878927292259</v>
+      </c>
+      <c r="E77">
+        <v>-0.04888043135674794</v>
+      </c>
+      <c r="F77">
+        <v>0.004951302802144452</v>
+      </c>
+      <c r="G77">
+        <v>0.06735516996051213</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.009322880396266275</v>
+        <v>0.04187173930494831</v>
       </c>
       <c r="C78">
-        <v>0.0005911531482409424</v>
+        <v>-0.05001827470425573</v>
       </c>
       <c r="D78">
-        <v>0.06335515708736868</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.006176403688182207</v>
+      </c>
+      <c r="E78">
+        <v>-0.03505667777080828</v>
+      </c>
+      <c r="F78">
+        <v>0.03373591538557198</v>
+      </c>
+      <c r="G78">
+        <v>0.1030565376694857</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>-0.0003334226458189212</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>-0.0007210221279793735</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.0002330672618566508</v>
+      </c>
+      <c r="E79">
+        <v>-0.002672641864850226</v>
+      </c>
+      <c r="F79">
+        <v>0.001635416327906157</v>
+      </c>
+      <c r="G79">
+        <v>0.000479499679208342</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.03496630667481645</v>
+        <v>0.04277654971952579</v>
       </c>
       <c r="C80">
-        <v>0.005868055365584165</v>
+        <v>-0.05231202530189691</v>
       </c>
       <c r="D80">
-        <v>0.07637540982736113</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.01322770508187038</v>
+      </c>
+      <c r="E80">
+        <v>-0.02648043582913302</v>
+      </c>
+      <c r="F80">
+        <v>0.006831834759116898</v>
+      </c>
+      <c r="G80">
+        <v>0.05299212831214226</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.06829008254800457</v>
+        <v>0.1365720846796974</v>
       </c>
       <c r="C81">
-        <v>0.04149928737267355</v>
+        <v>-0.09823679880009227</v>
       </c>
       <c r="D81">
-        <v>0.1644519283900034</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.0151280782106868</v>
+      </c>
+      <c r="E81">
+        <v>0.0442906568830162</v>
+      </c>
+      <c r="F81">
+        <v>-0.1223118322342901</v>
+      </c>
+      <c r="G81">
+        <v>0.01961258995596321</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0.002453757013437326</v>
+        <v>0.1382539681692571</v>
       </c>
       <c r="C82">
-        <v>0.001431810779515453</v>
+        <v>-0.08391384924019678</v>
       </c>
       <c r="D82">
-        <v>0.001635057017630821</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.01071824357936144</v>
+      </c>
+      <c r="E82">
+        <v>0.1126973096129058</v>
+      </c>
+      <c r="F82">
+        <v>-0.05550106757922446</v>
+      </c>
+      <c r="G82">
+        <v>0.05985142997711666</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.01245621271905065</v>
+        <v>0.03572615182885666</v>
       </c>
       <c r="C83">
-        <v>0.001915768202871973</v>
+        <v>-0.02931881374346167</v>
       </c>
       <c r="D83">
-        <v>0.01827882528213788</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.006103845809765831</v>
+      </c>
+      <c r="E83">
+        <v>-0.03287375128682993</v>
+      </c>
+      <c r="F83">
+        <v>0.02747662716323553</v>
+      </c>
+      <c r="G83">
+        <v>0.06270659849854279</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1867,164 +2623,272 @@
       <c r="D84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.1066952165515527</v>
+        <v>0.2092239688463355</v>
       </c>
       <c r="C85">
-        <v>0.05415098343940371</v>
+        <v>-0.1485786296954228</v>
       </c>
       <c r="D85">
-        <v>0.2621482263434322</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.01728160926187699</v>
+      </c>
+      <c r="E85">
+        <v>0.1108497737565116</v>
+      </c>
+      <c r="F85">
+        <v>-0.1026523878352135</v>
+      </c>
+      <c r="G85">
+        <v>-0.06266022073861756</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.01503875388701245</v>
+        <v>0.01349554117439809</v>
       </c>
       <c r="C86">
-        <v>0.001982036053337324</v>
+        <v>-0.02552008032268541</v>
       </c>
       <c r="D86">
-        <v>0.03633264411851525</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.0116530358703722</v>
+      </c>
+      <c r="E86">
+        <v>-0.0536772564987251</v>
+      </c>
+      <c r="F86">
+        <v>0.01242636224327181</v>
+      </c>
+      <c r="G86">
+        <v>0.1935796434298007</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>-0.005019906270745038</v>
+        <v>0.02175397666384891</v>
       </c>
       <c r="C87">
-        <v>-0.01179861303795833</v>
+        <v>-0.01962916780003941</v>
       </c>
       <c r="D87">
-        <v>0.02777662552795008</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.01221888589441226</v>
+      </c>
+      <c r="E87">
+        <v>-0.09710426318000488</v>
+      </c>
+      <c r="F87">
+        <v>-0.002629907234214347</v>
+      </c>
+      <c r="G87">
+        <v>0.1211383835877736</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.05174786735203112</v>
+        <v>0.09229139703398523</v>
       </c>
       <c r="C88">
-        <v>0.001407760228268307</v>
+        <v>-0.06965385708553976</v>
       </c>
       <c r="D88">
-        <v>0.04220105376742631</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.0219619683102538</v>
+      </c>
+      <c r="E88">
+        <v>0.005522429782529076</v>
+      </c>
+      <c r="F88">
+        <v>-0.02026467160348609</v>
+      </c>
+      <c r="G88">
+        <v>0.1034921809347777</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.3529959119674344</v>
+        <v>0.2359873472290582</v>
       </c>
       <c r="C89">
-        <v>0.1606576439211832</v>
+        <v>0.3674598177146922</v>
       </c>
       <c r="D89">
-        <v>-0.2188187301990136</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.0001041939831614</v>
+      </c>
+      <c r="E89">
+        <v>0.02043029810104882</v>
+      </c>
+      <c r="F89">
+        <v>-0.0255070447712882</v>
+      </c>
+      <c r="G89">
+        <v>0.06969275656201197</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.2921063360124329</v>
+        <v>0.2102113372449894</v>
       </c>
       <c r="C90">
-        <v>0.1364742863179549</v>
+        <v>0.3153135867555024</v>
       </c>
       <c r="D90">
-        <v>-0.1992066452697287</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.004365755589014234</v>
+      </c>
+      <c r="E90">
+        <v>0.0007962290600105214</v>
+      </c>
+      <c r="F90">
+        <v>-0.04466543761867042</v>
+      </c>
+      <c r="G90">
+        <v>0.04281020724936379</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>0.1069285608153071</v>
+        <v>0.1849779713145716</v>
       </c>
       <c r="C91">
-        <v>0.06808131351221622</v>
+        <v>-0.1408932358884891</v>
       </c>
       <c r="D91">
-        <v>0.2193335383293532</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.02245191737919953</v>
+      </c>
+      <c r="E91">
+        <v>0.07409073544382865</v>
+      </c>
+      <c r="F91">
+        <v>-0.1329556169906258</v>
+      </c>
+      <c r="G91">
+        <v>0.03392545296724918</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.2470494931562057</v>
+        <v>0.2016665464985669</v>
       </c>
       <c r="C92">
-        <v>0.1494087775790747</v>
+        <v>0.2562214068357966</v>
       </c>
       <c r="D92">
-        <v>-0.1020024549363021</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.03804404431540388</v>
+      </c>
+      <c r="E92">
+        <v>-0.03415564181564944</v>
+      </c>
+      <c r="F92">
+        <v>-0.0594332536714152</v>
+      </c>
+      <c r="G92">
+        <v>0.1119043872179369</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.3121047877448615</v>
+        <v>0.2343215180975959</v>
       </c>
       <c r="C93">
-        <v>0.1523077139890729</v>
+        <v>0.309370036085591</v>
       </c>
       <c r="D93">
-        <v>-0.1639761770401976</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.0109520562194987</v>
+      </c>
+      <c r="E93">
+        <v>-0.00211688462052241</v>
+      </c>
+      <c r="F93">
+        <v>-0.04048371651104148</v>
+      </c>
+      <c r="G93">
+        <v>0.05794789252013029</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.1567644084952939</v>
+        <v>0.3211483631841538</v>
       </c>
       <c r="C94">
-        <v>0.07092014582630117</v>
+        <v>-0.1830029951413339</v>
       </c>
       <c r="D94">
-        <v>0.278727759628318</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.02074655252401912</v>
+      </c>
+      <c r="E94">
+        <v>0.2560190256696256</v>
+      </c>
+      <c r="F94">
+        <v>-0.4631363894616745</v>
+      </c>
+      <c r="G94">
+        <v>-0.4058380674452176</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>0.01097965572836935</v>
+        <v>0.09884567939439629</v>
       </c>
       <c r="C95">
-        <v>0.01462550947658554</v>
+        <v>-0.08798489917336631</v>
       </c>
       <c r="D95">
-        <v>0.1247808171594897</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.01013301822514272</v>
+      </c>
+      <c r="E95">
+        <v>-0.08802300488604312</v>
+      </c>
+      <c r="F95">
+        <v>0.1621314572949948</v>
+      </c>
+      <c r="G95">
+        <v>0.01386625876740646</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.1496685937471559</v>
+        <v>0.1933424424572589</v>
       </c>
       <c r="C98">
-        <v>0.08955499911641292</v>
+        <v>-0.0459496927575293</v>
       </c>
       <c r="D98">
-        <v>0.1255274508267874</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.01232896510627872</v>
+      </c>
+      <c r="E98">
+        <v>-0.09342699789598571</v>
+      </c>
+      <c r="F98">
+        <v>0.2334960402520856</v>
+      </c>
+      <c r="G98">
+        <v>-0.02736973663004586</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.007592270387634875</v>
+        <v>0.008364526367353142</v>
       </c>
       <c r="C101">
-        <v>-0.003005925855511752</v>
+        <v>-0.02276740200817538</v>
       </c>
       <c r="D101">
-        <v>0.0149577332803557</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.009172850065764302</v>
+      </c>
+      <c r="E101">
+        <v>-0.005063716411047468</v>
+      </c>
+      <c r="F101">
+        <v>-0.01578685631720055</v>
+      </c>
+      <c r="G101">
+        <v>0.09865430361368931</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>0.06309499735310575</v>
+        <v>0.1146295257075325</v>
       </c>
       <c r="C102">
-        <v>0.02435344405721133</v>
+        <v>-0.08306837329922651</v>
       </c>
       <c r="D102">
-        <v>0.1353889557977159</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.0007215368755429914</v>
+      </c>
+      <c r="E102">
+        <v>0.03872001064572773</v>
+      </c>
+      <c r="F102">
+        <v>-0.03893151570940947</v>
+      </c>
+      <c r="G102">
+        <v>0.0139349247930534</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,19 +3060,37 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>0.4350074955366</v>
+        <v>0.02126030054805758</v>
       </c>
       <c r="C104">
-        <v>-0.8906115593980988</v>
+        <v>0.02906811024191127</v>
       </c>
       <c r="D104">
-        <v>-0.01872899602422328</v>
+        <v>0.9877536430284534</v>
+      </c>
+      <c r="E104">
+        <v>0.0556700077269893</v>
+      </c>
+      <c r="F104">
+        <v>-0.03288580967076608</v>
+      </c>
+      <c r="G104">
+        <v>-0.03990496807462423</v>
       </c>
     </row>
   </sheetData>
